--- a/docs/Tidplan.xlsx
+++ b/docs/Tidplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>PLANERING</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Projektgrupp:</t>
   </si>
   <si>
-    <t>Skriv gruppen här</t>
+    <t>Johan G &amp; Julia G</t>
   </si>
   <si>
     <t>Datum:</t>
@@ -51,6 +51,9 @@
     <t>1.0</t>
   </si>
   <si>
+    <t>Johan Gustafsson &amp; Julia Gunnarsson</t>
+  </si>
+  <si>
     <t>Kurs:</t>
   </si>
   <si>
@@ -60,7 +63,7 @@
     <t>Utfärdare:</t>
   </si>
   <si>
-    <t>Elev Elevsson</t>
+    <t>Julia Gunnarsson</t>
   </si>
   <si>
     <t>AKTIVITETER</t>
@@ -81,7 +84,7 @@
     <t>Beskrivning</t>
   </si>
   <si>
-    <t>timmar</t>
+    <t>minuter</t>
   </si>
   <si>
     <t>Initialer</t>
@@ -126,6 +129,9 @@
     <t>Reflektion</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>Programmera kontrollenheten</t>
   </si>
   <si>
@@ -168,17 +174,16 @@
     <t>Roger Sundh</t>
   </si>
   <si>
-    <t>Summa antal timmar:  </t>
+    <t>Summa antal timmar:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="YYYY/MM/DD" numFmtId="165"/>
-    <numFmt formatCode="YYYY/MM/DD" numFmtId="166"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -626,7 +631,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -927,10 +932,6 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="3" fontId="8" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="3" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -983,7 +984,7 @@
       <numFmt formatCode="GENERAL" numFmtId="164"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -998,8 +999,8 @@
   </sheetPr>
   <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M10" activeCellId="0" pane="topLeft" sqref="M10"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A3" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="Q4" activeCellId="0" pane="topLeft" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1143,7 +1144,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="9" t="n">
-        <v>42321</v>
+        <v>42328</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -1213,7 +1214,9 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
@@ -1249,21 +1252,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="5">
       <c r="A5" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
       <c r="D5" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -1308,20 +1311,20 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="6">
       <c r="A6" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="20"/>
       <c r="F6" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -1368,19 +1371,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="7">
       <c r="A7" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="26"/>
       <c r="F7" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="28" t="n">
         <v>35</v>
@@ -1512,21 +1515,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
       <c r="F8" s="32" t="n">
         <f aca="false">SUM(H8:AV8)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="34" t="n">
-        <v>4</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H8" s="34"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
@@ -1538,7 +1539,9 @@
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
+      <c r="T8" s="35" t="n">
+        <v>15</v>
+      </c>
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
@@ -1574,21 +1577,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="41"/>
       <c r="F9" s="32" t="n">
         <f aca="false">SUM(H9:AV9)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="42" t="n">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H9" s="42"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
       <c r="K9" s="43"/>
@@ -1600,7 +1601,9 @@
       <c r="Q9" s="43"/>
       <c r="R9" s="43"/>
       <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
+      <c r="T9" s="43" t="n">
+        <v>10</v>
+      </c>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
       <c r="W9" s="43"/>
@@ -1636,25 +1639,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="41"/>
       <c r="F10" s="32" t="n">
         <f aca="false">SUM(H10:AV10)</f>
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="46"/>
-      <c r="I10" s="43" t="n">
-        <v>88</v>
-      </c>
-      <c r="J10" s="43" t="n">
-        <v>8</v>
-      </c>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
       <c r="M10" s="43"/>
@@ -1664,7 +1663,9 @@
       <c r="Q10" s="43"/>
       <c r="R10" s="43"/>
       <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
+      <c r="T10" s="43" t="n">
+        <v>15</v>
+      </c>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
       <c r="W10" s="43"/>
@@ -1700,25 +1701,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
       <c r="F11" s="32" t="n">
         <f aca="false">SUM(H11:AV11)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" s="46"/>
-      <c r="I11" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" s="43" t="n">
-        <v>2</v>
-      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="43"/>
       <c r="L11" s="43"/>
       <c r="M11" s="43"/>
@@ -1728,7 +1725,9 @@
       <c r="Q11" s="43"/>
       <c r="R11" s="43"/>
       <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
+      <c r="T11" s="43" t="n">
+        <v>10</v>
+      </c>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
       <c r="W11" s="43"/>
@@ -1764,24 +1763,22 @@
         <v>5</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="41"/>
       <c r="F12" s="32" t="n">
         <f aca="false">SUM(H12:AV12)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="43"/>
       <c r="J12" s="43"/>
-      <c r="K12" s="43" t="n">
-        <v>4</v>
-      </c>
+      <c r="K12" s="43"/>
       <c r="L12" s="43"/>
       <c r="M12" s="43"/>
       <c r="N12" s="43"/>
@@ -1827,49 +1824,33 @@
         <v>6</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="41"/>
       <c r="F13" s="32" t="n">
         <f aca="false">SUM(H13:AV13)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
-      <c r="K13" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" s="43" t="n">
-        <v>6</v>
-      </c>
-      <c r="N13" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="O13" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="P13" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="R13" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="S13" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="T13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43" t="n">
+        <v>30</v>
+      </c>
       <c r="U13" s="43"/>
       <c r="V13" s="43"/>
       <c r="W13" s="43"/>
@@ -1905,33 +1886,25 @@
         <v>7</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="41"/>
       <c r="F14" s="32" t="n">
         <f aca="false">SUM(H14:AV14)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
-      <c r="K14" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="M14" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" s="43" t="n">
-        <v>4</v>
-      </c>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
       <c r="O14" s="43"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="43"/>
@@ -1973,27 +1946,23 @@
         <v>8</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="41"/>
       <c r="F15" s="32" t="n">
         <f aca="false">SUM(H15:AV15)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
-      <c r="K15" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" s="43" t="n">
-        <v>2</v>
-      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
       <c r="O15" s="43"/>
@@ -2037,17 +2006,17 @@
         <v>9</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="41"/>
       <c r="F16" s="32" t="n">
         <f aca="false">SUM(H16:AV16)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="43"/>
@@ -2059,12 +2028,8 @@
       <c r="O16" s="43"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="43"/>
-      <c r="R16" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="S16" s="43" t="n">
-        <v>8</v>
-      </c>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
       <c r="T16" s="43"/>
       <c r="U16" s="43"/>
       <c r="V16" s="43"/>
@@ -2101,33 +2066,25 @@
         <v>10</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="41"/>
       <c r="F17" s="32" t="n">
         <f aca="false">SUM(H17:AV17)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
-      <c r="K17" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="L17" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="M17" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" s="43" t="n">
-        <v>4</v>
-      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
       <c r="O17" s="43"/>
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
@@ -2169,46 +2126,30 @@
         <v>11</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="41"/>
       <c r="F18" s="32" t="n">
         <f aca="false">SUM(H18:AV18)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="43"/>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
-      <c r="L18" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="M18" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="O18" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="P18" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="R18" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="S18" s="43" t="n">
-        <v>8</v>
-      </c>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
       <c r="T18" s="43"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
@@ -2245,51 +2186,33 @@
         <v>12</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
       <c r="E19" s="41"/>
       <c r="F19" s="32" t="n">
         <f aca="false">SUM(H19:AV19)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" s="46"/>
-      <c r="I19" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
       <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
+      <c r="T19" s="43" t="s">
+        <v>37</v>
+      </c>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
       <c r="W19" s="43"/>
@@ -2325,17 +2248,17 @@
         <v>13</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="41"/>
       <c r="F20" s="32" t="n">
         <f aca="false">SUM(H20:AV20)</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="43"/>
@@ -2343,21 +2266,11 @@
       <c r="K20" s="43"/>
       <c r="L20" s="43"/>
       <c r="M20" s="43"/>
-      <c r="N20" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="O20" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="P20" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="R20" s="43" t="n">
-        <v>8</v>
-      </c>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
       <c r="S20" s="43"/>
       <c r="T20" s="43"/>
       <c r="U20" s="43"/>
@@ -2395,17 +2308,17 @@
         <v>14</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="41"/>
       <c r="F21" s="32" t="n">
         <f aca="false">SUM(H21:AV21)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="43"/>
@@ -2413,18 +2326,10 @@
       <c r="K21" s="43"/>
       <c r="L21" s="43"/>
       <c r="M21" s="43"/>
-      <c r="N21" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="O21" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="P21" s="43" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="43" t="n">
-        <v>6</v>
-      </c>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
       <c r="R21" s="43"/>
       <c r="S21" s="43"/>
       <c r="T21" s="43"/>
@@ -2463,17 +2368,17 @@
         <v>15</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
       <c r="E22" s="41"/>
       <c r="F22" s="32" t="n">
         <f aca="false">SUM(H22:AV22)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="51"/>
@@ -2482,15 +2387,9 @@
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
-      <c r="O22" s="51" t="n">
-        <v>8</v>
-      </c>
-      <c r="P22" s="51" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="51" t="n">
-        <v>6</v>
-      </c>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="51"/>
       <c r="T22" s="51"/>
@@ -2529,17 +2428,17 @@
         <v>16</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
       <c r="E23" s="41"/>
       <c r="F23" s="32" t="n">
         <f aca="false">SUM(H23:AV23)</f>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="43"/>
@@ -2549,17 +2448,13 @@
       <c r="M23" s="43"/>
       <c r="N23" s="43"/>
       <c r="O23" s="43"/>
-      <c r="P23" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="43" t="n">
-        <v>6</v>
-      </c>
-      <c r="R23" s="43" t="n">
-        <v>8</v>
-      </c>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
       <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
+      <c r="T23" s="43" t="n">
+        <v>40</v>
+      </c>
       <c r="U23" s="43"/>
       <c r="V23" s="43"/>
       <c r="W23" s="43"/>
@@ -2595,42 +2490,26 @@
         <v>17</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="41"/>
       <c r="F24" s="32" t="n">
         <f aca="false">SUM(H24:AV24)</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="54" t="n">
-        <v>16</v>
-      </c>
-      <c r="I24" s="55" t="n">
-        <v>16</v>
-      </c>
-      <c r="J24" s="55" t="n">
-        <v>16</v>
-      </c>
-      <c r="K24" s="55" t="n">
-        <v>4</v>
-      </c>
-      <c r="L24" s="55" t="n">
-        <v>4</v>
-      </c>
-      <c r="M24" s="55" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="O24" s="55" t="n">
-        <v>2</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
       <c r="P24" s="55"/>
       <c r="Q24" s="55"/>
       <c r="R24" s="55"/>
@@ -2671,33 +2550,25 @@
         <v>18</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
       <c r="E25" s="41"/>
       <c r="F25" s="32" t="n">
         <f aca="false">SUM(H25:AV25)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H25" s="46"/>
       <c r="I25" s="43"/>
       <c r="J25" s="43"/>
-      <c r="K25" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="L25" s="43" t="n">
-        <v>6</v>
-      </c>
-      <c r="M25" s="43" t="n">
-        <v>6</v>
-      </c>
-      <c r="N25" s="43" t="n">
-        <v>6</v>
-      </c>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
       <c r="O25" s="58"/>
       <c r="P25" s="43"/>
       <c r="Q25" s="43"/>
@@ -3131,7 +3002,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="40"/>
@@ -3189,67 +3060,67 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="34">
       <c r="A34" s="24"/>
       <c r="B34" s="66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C34" s="66"/>
       <c r="D34" s="66"/>
       <c r="E34" s="41"/>
       <c r="F34" s="27" t="n">
         <f aca="false">SUM(F8:F33)</f>
-        <v>469</v>
+        <v>122</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="67" t="n">
         <f aca="false">SUM(H8:H33)</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I34" s="67" t="n">
         <f aca="false">SUM(I8:I33)</f>
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="J34" s="67" t="n">
         <f aca="false">SUM(J8:J33)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K34" s="67" t="n">
         <f aca="false">SUM(K8:K33)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L34" s="67" t="n">
         <f aca="false">SUM(L8:L33)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M34" s="67" t="n">
         <f aca="false">SUM(M8:M33)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N34" s="67" t="n">
         <f aca="false">SUM(N8:N33)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="O34" s="67" t="n">
         <f aca="false">SUM(O8:O33)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P34" s="67" t="n">
         <f aca="false">SUM(P8:P33)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="67" t="n">
         <f aca="false">SUM(Q8:Q33)</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="R34" s="67" t="n">
         <f aca="false">SUM(R8:R33)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="S34" s="67" t="n">
         <f aca="false">SUM(S8:S33)</f>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="T34" s="67" t="n">
         <f aca="false">SUM(T8:T33)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="U34" s="67" t="n">
         <f aca="false">SUM(U8:U33)</f>
@@ -4379,12 +4250,12 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
   </mergeCells>
-  <conditionalFormatting sqref="F8:F33">
+  <conditionalFormatting sqref="H34:AV34">
     <cfRule aboveAverage="0" bottom="0" dxfId="0" equalAverage="0" operator="equal" percent="0" priority="2" rank="0" text="" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:AV34">
+  <conditionalFormatting sqref="F15">
     <cfRule aboveAverage="0" bottom="0" dxfId="0" equalAverage="0" operator="equal" percent="0" priority="3" rank="0" text="" type="cellIs">
       <formula>0</formula>
     </cfRule>
@@ -4426,7 +4297,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="1">
       <c r="A1" s="68" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -4541,7 +4412,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="8" t="str">
         <f aca="false">Basplan!D3</f>
-        <v>Skriv gruppen här</v>
+        <v>Johan G &amp; Julia G</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -4551,7 +4422,7 @@
       <c r="H3" s="73"/>
       <c r="I3" s="9" t="n">
         <f aca="false">Basplan!I3</f>
-        <v>42321</v>
+        <v>42328</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -4612,16 +4483,16 @@
         <v>9</v>
       </c>
       <c r="H4" s="74"/>
-      <c r="I4" s="75" t="n">
+      <c r="I4" s="9" t="n">
         <f aca="false">Basplan!I4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
@@ -4659,7 +4530,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="5">
       <c r="A5" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
@@ -4669,20 +4540,20 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="75" t="n">
+      <c r="G5" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="9" t="n">
         <f aca="false">Basplan!I5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -4719,17 +4590,17 @@
       <c r="AW5" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="6">
-      <c r="A6" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
+      <c r="A6" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -4776,7 +4647,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="7">
       <c r="A7" s="24"/>
       <c r="B7" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -4855,83 +4726,83 @@
         <f aca="false">Basplan!Y7</f>
         <v>52</v>
       </c>
-      <c r="Z7" s="78" t="n">
+      <c r="Z7" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="AA7" s="78" t="n">
+      <c r="AA7" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="AB7" s="78" t="n">
+      <c r="AB7" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="AC7" s="78" t="n">
+      <c r="AC7" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="AD7" s="78" t="n">
+      <c r="AD7" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="AE7" s="78" t="n">
+      <c r="AE7" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="AF7" s="78" t="n">
+      <c r="AF7" s="77" t="n">
         <v>7</v>
       </c>
-      <c r="AG7" s="78" t="n">
+      <c r="AG7" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="AH7" s="78" t="n">
+      <c r="AH7" s="77" t="n">
         <v>9</v>
       </c>
-      <c r="AI7" s="78" t="n">
+      <c r="AI7" s="77" t="n">
         <v>10</v>
       </c>
-      <c r="AJ7" s="78" t="n">
+      <c r="AJ7" s="77" t="n">
         <v>11</v>
       </c>
-      <c r="AK7" s="78" t="n">
+      <c r="AK7" s="77" t="n">
         <v>12</v>
       </c>
-      <c r="AL7" s="78" t="n">
+      <c r="AL7" s="77" t="n">
         <v>13</v>
       </c>
-      <c r="AM7" s="78" t="n">
+      <c r="AM7" s="77" t="n">
         <v>14</v>
       </c>
-      <c r="AN7" s="78" t="n">
+      <c r="AN7" s="77" t="n">
         <v>15</v>
       </c>
-      <c r="AO7" s="78" t="n">
+      <c r="AO7" s="77" t="n">
         <v>16</v>
       </c>
-      <c r="AP7" s="78" t="n">
+      <c r="AP7" s="77" t="n">
         <v>17</v>
       </c>
-      <c r="AQ7" s="78" t="n">
+      <c r="AQ7" s="77" t="n">
         <v>18</v>
       </c>
-      <c r="AR7" s="78" t="n">
+      <c r="AR7" s="77" t="n">
         <v>19</v>
       </c>
-      <c r="AS7" s="78" t="n">
+      <c r="AS7" s="77" t="n">
         <v>20</v>
       </c>
-      <c r="AT7" s="78" t="n">
+      <c r="AT7" s="77" t="n">
         <v>21</v>
       </c>
-      <c r="AU7" s="78" t="n">
+      <c r="AU7" s="77" t="n">
         <v>22</v>
       </c>
-      <c r="AV7" s="78" t="n">
+      <c r="AV7" s="77" t="n">
         <v>23</v>
       </c>
       <c r="AW7" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="8">
       <c r="A8" s="39"/>
       <c r="B8" s="49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
@@ -4940,55 +4811,55 @@
       <c r="G8" s="49"/>
       <c r="H8" s="43" t="n">
         <f aca="false">Basplan!H34</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I8" s="43" t="n">
         <f aca="false">Basplan!I34</f>
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="J8" s="43" t="n">
         <f aca="false">Basplan!J34</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K8" s="43" t="n">
         <f aca="false">Basplan!K34</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L8" s="43" t="n">
         <f aca="false">Basplan!L34</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M8" s="43" t="n">
         <f aca="false">Basplan!M34</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N8" s="43" t="n">
         <f aca="false">Basplan!N34</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="O8" s="43" t="n">
         <f aca="false">Basplan!O34</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P8" s="43" t="n">
         <f aca="false">Basplan!P34</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="43" t="n">
         <f aca="false">Basplan!Q34</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="R8" s="43" t="n">
         <f aca="false">Basplan!R34</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="S8" s="43" t="n">
         <f aca="false">Basplan!S34</f>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="T8" s="43" t="n">
         <f aca="false">Basplan!T34</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="U8" s="43" t="n">
         <f aca="false">Basplan!U34</f>
@@ -5102,9 +4973,9 @@
         <f aca="false">Basplan!AV34</f>
         <v>0</v>
       </c>
-      <c r="AW8" s="38" t="n">
+      <c r="AW8" s="38" t="e">
         <f aca="false">IF(SUM(H8:AV8)&lt;&gt;0;SUM(H8:AV8);"")</f>
-        <v>469</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="9">
@@ -5279,9 +5150,9 @@
         <f aca="false">Basplan!AV35</f>
         <v>0</v>
       </c>
-      <c r="AW9" s="38" t="str">
+      <c r="AW9" s="38" t="e">
         <f aca="false">IF(SUM(H9:AV9)&lt;&gt;0;SUM(H9:AV9);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="10">
@@ -5456,9 +5327,9 @@
         <f aca="false">Basplan!AV36</f>
         <v>0</v>
       </c>
-      <c r="AW10" s="38" t="str">
+      <c r="AW10" s="38" t="e">
         <f aca="false">IF(SUM(H10:AV10)&lt;&gt;0;SUM(H10:AV10);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="11">
@@ -5633,9 +5504,9 @@
         <f aca="false">Basplan!AV37</f>
         <v>0</v>
       </c>
-      <c r="AW11" s="38" t="str">
+      <c r="AW11" s="38" t="e">
         <f aca="false">IF(SUM(H11:AV11)&lt;&gt;0;SUM(H11:AV11);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="12">
@@ -5810,9 +5681,9 @@
         <f aca="false">Basplan!AV38</f>
         <v>0</v>
       </c>
-      <c r="AW12" s="38" t="str">
+      <c r="AW12" s="38" t="e">
         <f aca="false">IF(SUM(H12:AV12)&lt;&gt;0;SUM(H12:AV12);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="13">
@@ -5987,9 +5858,9 @@
         <f aca="false">Basplan!AV39</f>
         <v>0</v>
       </c>
-      <c r="AW13" s="38" t="str">
+      <c r="AW13" s="38" t="e">
         <f aca="false">IF(SUM(H13:AV13)&lt;&gt;0;SUM(H13:AV13);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="14">
@@ -6164,9 +6035,9 @@
         <f aca="false">Basplan!AV40</f>
         <v>0</v>
       </c>
-      <c r="AW14" s="38" t="str">
+      <c r="AW14" s="38" t="e">
         <f aca="false">IF(SUM(H14:AV14)&lt;&gt;0;SUM(H14:AV14);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="15">
@@ -6341,9 +6212,9 @@
         <f aca="false">Basplan!AV41</f>
         <v>0</v>
       </c>
-      <c r="AW15" s="38" t="str">
+      <c r="AW15" s="38" t="e">
         <f aca="false">IF(SUM(H15:AV15)&lt;&gt;0;SUM(H15:AV15);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="16">
@@ -6518,9 +6389,9 @@
         <f aca="false">Basplan!AV42</f>
         <v>0</v>
       </c>
-      <c r="AW16" s="38" t="str">
+      <c r="AW16" s="38" t="e">
         <f aca="false">IF(SUM(H16:AV16)&lt;&gt;0;SUM(H16:AV16);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="17">
@@ -6695,9 +6566,9 @@
         <f aca="false">Basplan!AV43</f>
         <v>0</v>
       </c>
-      <c r="AW17" s="38" t="str">
+      <c r="AW17" s="38" t="e">
         <f aca="false">IF(SUM(H17:AV17)&lt;&gt;0;SUM(H17:AV17);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="18">
@@ -6872,9 +6743,9 @@
         <f aca="false">Basplan!AV44</f>
         <v>0</v>
       </c>
-      <c r="AW18" s="38" t="str">
+      <c r="AW18" s="38" t="e">
         <f aca="false">IF(SUM(H18:AV18)&lt;&gt;0;SUM(H18:AV18);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="19">
@@ -7049,9 +6920,9 @@
         <f aca="false">Basplan!AV45</f>
         <v>0</v>
       </c>
-      <c r="AW19" s="38" t="str">
+      <c r="AW19" s="38" t="e">
         <f aca="false">IF(SUM(H19:AV19)&lt;&gt;0;SUM(H19:AV19);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="20">
@@ -7226,9 +7097,9 @@
         <f aca="false">Basplan!AV46</f>
         <v>0</v>
       </c>
-      <c r="AW20" s="38" t="str">
+      <c r="AW20" s="38" t="e">
         <f aca="false">IF(SUM(H20:AV20)&lt;&gt;0;SUM(H20:AV20);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="21">
@@ -7403,9 +7274,9 @@
         <f aca="false">Basplan!AV47</f>
         <v>0</v>
       </c>
-      <c r="AW21" s="38" t="str">
+      <c r="AW21" s="38" t="e">
         <f aca="false">IF(SUM(H21:AV21)&lt;&gt;0;SUM(H21:AV21);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="22">
@@ -7580,9 +7451,9 @@
         <f aca="false">Basplan!AV48</f>
         <v>0</v>
       </c>
-      <c r="AW22" s="38" t="str">
+      <c r="AW22" s="38" t="e">
         <f aca="false">IF(SUM(H22:AV22)&lt;&gt;0;SUM(H22:AV22);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="23">
@@ -7757,9 +7628,9 @@
         <f aca="false">Basplan!AV49</f>
         <v>0</v>
       </c>
-      <c r="AW23" s="38" t="str">
+      <c r="AW23" s="38" t="e">
         <f aca="false">IF(SUM(H23:AV23)&lt;&gt;0;SUM(H23:AV23);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="24">
@@ -7934,9 +7805,9 @@
         <f aca="false">Basplan!AV50</f>
         <v>0</v>
       </c>
-      <c r="AW24" s="38" t="str">
+      <c r="AW24" s="38" t="e">
         <f aca="false">IF(SUM(H24:AV24)&lt;&gt;0;SUM(H24:AV24);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="25">
@@ -8111,9 +7982,9 @@
         <f aca="false">Basplan!AV51</f>
         <v>0</v>
       </c>
-      <c r="AW25" s="38" t="str">
+      <c r="AW25" s="38" t="e">
         <f aca="false">IF(SUM(H25:AV25)&lt;&gt;0;SUM(H25:AV25);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="26">
@@ -8288,9 +8159,9 @@
         <f aca="false">Basplan!AV52</f>
         <v>0</v>
       </c>
-      <c r="AW26" s="38" t="str">
+      <c r="AW26" s="38" t="e">
         <f aca="false">IF(SUM(H26:AV26)&lt;&gt;0;SUM(H26:AV26);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="27">
@@ -8465,9 +8336,9 @@
         <f aca="false">Basplan!AV53</f>
         <v>0</v>
       </c>
-      <c r="AW27" s="38" t="str">
+      <c r="AW27" s="38" t="e">
         <f aca="false">IF(SUM(H27:AV27)&lt;&gt;0;SUM(H27:AV27);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="28">
@@ -8642,9 +8513,9 @@
         <f aca="false">Basplan!AV54</f>
         <v>0</v>
       </c>
-      <c r="AW28" s="38" t="str">
+      <c r="AW28" s="38" t="e">
         <f aca="false">IF(SUM(H28:AV28)&lt;&gt;0;SUM(H28:AV28);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="29">
@@ -8819,9 +8690,9 @@
         <f aca="false">Basplan!AV55</f>
         <v>0</v>
       </c>
-      <c r="AW29" s="38" t="str">
+      <c r="AW29" s="38" t="e">
         <f aca="false">IF(SUM(H29:AV29)&lt;&gt;0;SUM(H29:AV29);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="30">
@@ -8996,19 +8867,19 @@
         <f aca="false">Basplan!AV56</f>
         <v>0</v>
       </c>
-      <c r="AW30" s="38" t="str">
+      <c r="AW30" s="38" t="e">
         <f aca="false">IF(SUM(H30:AV30)&lt;&gt;0;SUM(H30:AV30);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="31">
       <c r="A31" s="39"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="43" t="n">
         <f aca="false">Basplan!H57</f>
         <v>0</v>
@@ -9173,184 +9044,184 @@
         <f aca="false">Basplan!AV57</f>
         <v>0</v>
       </c>
-      <c r="AW31" s="38" t="str">
+      <c r="AW31" s="38" t="e">
         <f aca="false">IF(SUM(H31:AV31)&lt;&gt;0;SUM(H31:AV31);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="32">
       <c r="A32" s="27"/>
-      <c r="B32" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="81" t="n">
+      <c r="B32" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80" t="e">
         <f aca="false">IF(SUM(H8:H31)&lt;&gt;0;SUM(H8:H31);"")</f>
-        <v>21</v>
-      </c>
-      <c r="I32" s="81" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I32" s="80" t="e">
         <f aca="false">IF(SUM(I8:I31)&lt;&gt;0;SUM(I8:I31);"")</f>
-        <v>107</v>
-      </c>
-      <c r="J32" s="81" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J32" s="80" t="e">
         <f aca="false">IF(SUM(J8:J31)&lt;&gt;0;SUM(J8:J31);"")</f>
-        <v>27</v>
-      </c>
-      <c r="K32" s="81" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="80" t="e">
         <f aca="false">IF(SUM(K8:K31)&lt;&gt;0;SUM(K8:K31);"")</f>
-        <v>25</v>
-      </c>
-      <c r="L32" s="81" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L32" s="80" t="e">
         <f aca="false">IF(SUM(L8:L31)&lt;&gt;0;SUM(L8:L31);"")</f>
-        <v>29</v>
-      </c>
-      <c r="M32" s="81" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M32" s="80" t="e">
         <f aca="false">IF(SUM(M8:M31)&lt;&gt;0;SUM(M8:M31);"")</f>
-        <v>29</v>
-      </c>
-      <c r="N32" s="81" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N32" s="80" t="e">
         <f aca="false">IF(SUM(N8:N31)&lt;&gt;0;SUM(N8:N31);"")</f>
-        <v>41</v>
-      </c>
-      <c r="O32" s="81" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O32" s="80" t="e">
         <f aca="false">IF(SUM(O8:O31)&lt;&gt;0;SUM(O8:O31);"")</f>
-        <v>35</v>
-      </c>
-      <c r="P32" s="81" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P32" s="80" t="e">
         <f aca="false">IF(SUM(P8:P31)&lt;&gt;0;SUM(P8:P31);"")</f>
-        <v>45</v>
-      </c>
-      <c r="Q32" s="81" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q32" s="80" t="e">
         <f aca="false">IF(SUM(Q8:Q31)&lt;&gt;0;SUM(Q8:Q31);"")</f>
-        <v>43</v>
-      </c>
-      <c r="R32" s="81" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R32" s="80" t="e">
         <f aca="false">IF(SUM(R8:R31)&lt;&gt;0;SUM(R8:R31);"")</f>
-        <v>41</v>
-      </c>
-      <c r="S32" s="81" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S32" s="80" t="e">
         <f aca="false">IF(SUM(S8:S31)&lt;&gt;0;SUM(S8:S31);"")</f>
-        <v>26</v>
-      </c>
-      <c r="T32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T32" s="80" t="e">
         <f aca="false">IF(SUM(T8:T31)&lt;&gt;0;SUM(T8:T31);"")</f>
-        <v/>
-      </c>
-      <c r="U32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U32" s="80" t="e">
         <f aca="false">IF(SUM(U8:U31)&lt;&gt;0;SUM(U8:U31);"")</f>
-        <v/>
-      </c>
-      <c r="V32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V32" s="80" t="e">
         <f aca="false">IF(SUM(V8:V31)&lt;&gt;0;SUM(V8:V31);"")</f>
-        <v/>
-      </c>
-      <c r="W32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W32" s="80" t="e">
         <f aca="false">IF(SUM(W8:W31)&lt;&gt;0;SUM(W8:W31);"")</f>
-        <v/>
-      </c>
-      <c r="X32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X32" s="80" t="e">
         <f aca="false">IF(SUM(X8:X31)&lt;&gt;0;SUM(X8:X31);"")</f>
-        <v/>
-      </c>
-      <c r="Y32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y32" s="80" t="e">
         <f aca="false">IF(SUM(Y8:Y31)&lt;&gt;0;SUM(Y8:Y31);"")</f>
-        <v/>
-      </c>
-      <c r="Z32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z32" s="80" t="e">
         <f aca="false">IF(SUM(Z8:Z31)&lt;&gt;0;SUM(Z8:Z31);"")</f>
-        <v/>
-      </c>
-      <c r="AA32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA32" s="80" t="e">
         <f aca="false">IF(SUM(AA8:AA31)&lt;&gt;0;SUM(AA8:AA31);"")</f>
-        <v/>
-      </c>
-      <c r="AB32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB32" s="80" t="e">
         <f aca="false">IF(SUM(AB8:AB31)&lt;&gt;0;SUM(AB8:AB31);"")</f>
-        <v/>
-      </c>
-      <c r="AC32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC32" s="80" t="e">
         <f aca="false">IF(SUM(AC8:AC31)&lt;&gt;0;SUM(AC8:AC31);"")</f>
-        <v/>
-      </c>
-      <c r="AD32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD32" s="80" t="e">
         <f aca="false">IF(SUM(AD8:AD31)&lt;&gt;0;SUM(AD8:AD31);"")</f>
-        <v/>
-      </c>
-      <c r="AE32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE32" s="80" t="e">
         <f aca="false">IF(SUM(AE8:AE31)&lt;&gt;0;SUM(AE8:AE31);"")</f>
-        <v/>
-      </c>
-      <c r="AF32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF32" s="80" t="e">
         <f aca="false">IF(SUM(AF8:AF31)&lt;&gt;0;SUM(AF8:AF31);"")</f>
-        <v/>
-      </c>
-      <c r="AG32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG32" s="80" t="e">
         <f aca="false">IF(SUM(AG8:AG31)&lt;&gt;0;SUM(AG8:AG31);"")</f>
-        <v/>
-      </c>
-      <c r="AH32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH32" s="80" t="e">
         <f aca="false">IF(SUM(AH8:AH31)&lt;&gt;0;SUM(AH8:AH31);"")</f>
-        <v/>
-      </c>
-      <c r="AI32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI32" s="80" t="e">
         <f aca="false">IF(SUM(AI8:AI31)&lt;&gt;0;SUM(AI8:AI31);"")</f>
-        <v/>
-      </c>
-      <c r="AJ32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ32" s="80" t="e">
         <f aca="false">IF(SUM(AJ8:AJ31)&lt;&gt;0;SUM(AJ8:AJ31);"")</f>
-        <v/>
-      </c>
-      <c r="AK32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK32" s="80" t="e">
         <f aca="false">IF(SUM(AK8:AK31)&lt;&gt;0;SUM(AK8:AK31);"")</f>
-        <v/>
-      </c>
-      <c r="AL32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL32" s="80" t="e">
         <f aca="false">IF(SUM(AL8:AL31)&lt;&gt;0;SUM(AL8:AL31);"")</f>
-        <v/>
-      </c>
-      <c r="AM32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM32" s="80" t="e">
         <f aca="false">IF(SUM(AM8:AM31)&lt;&gt;0;SUM(AM8:AM31);"")</f>
-        <v/>
-      </c>
-      <c r="AN32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN32" s="80" t="e">
         <f aca="false">IF(SUM(AN8:AN31)&lt;&gt;0;SUM(AN8:AN31);"")</f>
-        <v/>
-      </c>
-      <c r="AO32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO32" s="80" t="e">
         <f aca="false">IF(SUM(AO8:AO31)&lt;&gt;0;SUM(AO8:AO31);"")</f>
-        <v/>
-      </c>
-      <c r="AP32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP32" s="80" t="e">
         <f aca="false">IF(SUM(AP8:AP31)&lt;&gt;0;SUM(AP8:AP31);"")</f>
-        <v/>
-      </c>
-      <c r="AQ32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ32" s="80" t="e">
         <f aca="false">IF(SUM(AQ8:AQ31)&lt;&gt;0;SUM(AQ8:AQ31);"")</f>
-        <v/>
-      </c>
-      <c r="AR32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR32" s="80" t="e">
         <f aca="false">IF(SUM(AR8:AR31)&lt;&gt;0;SUM(AR8:AR31);"")</f>
-        <v/>
-      </c>
-      <c r="AS32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS32" s="80" t="e">
         <f aca="false">IF(SUM(AS8:AS31)&lt;&gt;0;SUM(AS8:AS31);"")</f>
-        <v/>
-      </c>
-      <c r="AT32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT32" s="80" t="e">
         <f aca="false">IF(SUM(AT8:AT31)&lt;&gt;0;SUM(AT8:AT31);"")</f>
-        <v/>
-      </c>
-      <c r="AU32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU32" s="80" t="e">
         <f aca="false">IF(SUM(AU8:AU31)&lt;&gt;0;SUM(AU8:AU31);"")</f>
-        <v/>
-      </c>
-      <c r="AV32" s="81" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV32" s="80" t="e">
         <f aca="false">IF(SUM(AV8:AV31)&lt;&gt;0;SUM(AV8:AV31);"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="AW32" s="27" t="n">
         <f aca="false">SUM(AW8:AW31)</f>
